--- a/insertData/users.xlsx
+++ b/insertData/users.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaiwatkhunwiset/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptpspp/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB150C-2D4C-FE48-A75D-10C839EC1D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD46BEB-0EE7-EB45-ADE7-5ADDAFD625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{75275C18-92CA-1A46-8F41-16DD1631677E}"/>
+    <workbookView xWindow="1340" yWindow="500" windowWidth="10300" windowHeight="16220" activeTab="1" xr2:uid="{75275C18-92CA-1A46-8F41-16DD1631677E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1129">
   <si>
     <t>uuid</t>
   </si>
@@ -3424,16 +3424,27 @@
   </si>
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าธนบุรี</t>
+  </si>
+  <si>
+    <t>dake2475@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3485,10 +3496,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3520,15 +3532,14 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3878,7 +3889,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -3901,7 +3912,7 @@
     <col min="20" max="20" width="11.5" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.1640625" bestFit="1" customWidth="1"/>
@@ -4060,10 +4071,10 @@
       <c r="T2" s="10">
         <v>2548</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="12">
         <v>1189900417612</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="12">
         <v>1189900417612</v>
       </c>
       <c r="AI2" s="1" t="s">
@@ -4098,10 +4109,10 @@
       <c r="T3" s="10">
         <v>2538</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="13">
         <v>1929800087729</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="13">
         <v>1929800087729</v>
       </c>
       <c r="AI3" s="2" t="s">
@@ -4136,10 +4147,10 @@
       <c r="T4" s="10">
         <v>2544</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="12">
         <v>1848100001431</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="12">
         <v>1848100001431</v>
       </c>
       <c r="AI4" s="1" t="s">
@@ -4174,10 +4185,10 @@
       <c r="T5" s="10">
         <v>2537</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="14">
         <v>1819900159587</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="14">
         <v>1819900159587</v>
       </c>
       <c r="AI5" s="3" t="s">
@@ -4210,10 +4221,10 @@
       <c r="T6" s="10">
         <v>2543</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="12">
         <v>1329900968005</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="12">
         <v>1329900968005</v>
       </c>
       <c r="AI6" s="1" t="s">
@@ -4248,10 +4259,10 @@
       <c r="T7" s="10">
         <v>2544</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="14">
         <v>1589900118077</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="14">
         <v>1589900118077</v>
       </c>
       <c r="AI7" s="3" t="s">
@@ -4286,10 +4297,10 @@
       <c r="T8" s="10">
         <v>2532</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="12">
         <v>1360600131128</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="12">
         <v>1360600131128</v>
       </c>
       <c r="AI8" s="1" t="s">
@@ -4324,10 +4335,10 @@
       <c r="T9" s="10">
         <v>2531</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="14">
         <v>1900500052883</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="14">
         <v>1900500052883</v>
       </c>
       <c r="AI9" s="3" t="s">
@@ -4362,10 +4373,10 @@
       <c r="T10" s="10">
         <v>2526</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="12">
         <v>3660100694933</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="12">
         <v>3660100694933</v>
       </c>
       <c r="AI10" s="1" t="s">
@@ -4400,10 +4411,10 @@
       <c r="T11" s="10">
         <v>2539</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="14">
         <v>1100300128514</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="14">
         <v>1100300128514</v>
       </c>
       <c r="AI11" s="3" t="s">
@@ -4436,10 +4447,10 @@
       <c r="T12" s="10">
         <v>2541</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="12">
         <v>1329900804312</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="12">
         <v>1329900804312</v>
       </c>
       <c r="AI12" s="1" t="s">
@@ -4474,10 +4485,10 @@
       <c r="T13" s="10">
         <v>2540</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="14">
         <v>1480400101631</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="14">
         <v>1480400101631</v>
       </c>
       <c r="AI13" s="3" t="s">
@@ -4512,10 +4523,10 @@
       <c r="T14" s="10">
         <v>2544</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="12">
         <v>1578000002462</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="12">
         <v>1578000002462</v>
       </c>
       <c r="AI14" s="1" t="s">
@@ -4550,10 +4561,10 @@
       <c r="T15" s="10">
         <v>2534</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="14">
         <v>1129900139582</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="14">
         <v>1129900139582</v>
       </c>
       <c r="AI15" s="3" t="s">
@@ -4588,10 +4599,10 @@
       <c r="T16" s="10">
         <v>2543</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="12">
         <v>1129700201390</v>
       </c>
-      <c r="X16" s="15">
+      <c r="X16" s="12">
         <v>1129700201390</v>
       </c>
       <c r="AI16" s="1" t="s">
@@ -4626,10 +4637,10 @@
       <c r="T17" s="10">
         <v>2534</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="14">
         <v>1199900278027</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="14">
         <v>1199900278027</v>
       </c>
       <c r="AI17" s="3" t="s">
@@ -4664,10 +4675,10 @@
       <c r="T18" s="10">
         <v>2540</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="12">
         <v>1409901644423</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="12">
         <v>1409901644423</v>
       </c>
       <c r="AI18" s="1" t="s">
@@ -4700,10 +4711,10 @@
       <c r="T19" s="10">
         <v>2542</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="14">
         <v>1521000068254</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="14">
         <v>1521000068254</v>
       </c>
       <c r="AI19" s="3" t="s">
@@ -4736,10 +4747,10 @@
       <c r="T20" s="10">
         <v>2527</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="12">
         <v>1101500011476</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X20" s="12">
         <v>1101500011476</v>
       </c>
       <c r="AI20" s="1" t="s">
@@ -4774,10 +4785,10 @@
       <c r="T21" s="10">
         <v>2539</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="14">
         <v>3349800251407</v>
       </c>
-      <c r="X21" s="17">
+      <c r="X21" s="14">
         <v>3349800251407</v>
       </c>
       <c r="AI21" s="3" t="s">
@@ -4812,8 +4823,8 @@
       <c r="T22" s="10">
         <v>2531</v>
       </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
       <c r="AI22" s="1" t="s">
         <v>182</v>
       </c>
@@ -4846,10 +4857,10 @@
       <c r="T23" s="10">
         <v>2537</v>
       </c>
-      <c r="W23" s="17">
+      <c r="W23" s="14">
         <v>1110300135332</v>
       </c>
-      <c r="X23" s="17">
+      <c r="X23" s="14">
         <v>1110300135332</v>
       </c>
       <c r="AI23" s="3" t="s">
@@ -4882,10 +4893,10 @@
       <c r="T24" s="10">
         <v>2542</v>
       </c>
-      <c r="W24" s="15">
+      <c r="W24" s="12">
         <v>1969900301927</v>
       </c>
-      <c r="X24" s="15">
+      <c r="X24" s="12">
         <v>1969900301927</v>
       </c>
       <c r="AI24" s="1" t="s">
@@ -4920,10 +4931,10 @@
       <c r="T25" s="10">
         <v>2533</v>
       </c>
-      <c r="W25" s="17">
+      <c r="W25" s="14">
         <v>1103700210997</v>
       </c>
-      <c r="X25" s="17">
+      <c r="X25" s="14">
         <v>1103700210997</v>
       </c>
       <c r="AI25" s="3" t="s">
@@ -4958,10 +4969,10 @@
       <c r="T26" s="10">
         <v>2546</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="12">
         <v>1160101831053</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="12">
         <v>1160101831053</v>
       </c>
       <c r="AI26" s="1" t="s">
@@ -4994,10 +5005,10 @@
       <c r="T27" s="10">
         <v>2545</v>
       </c>
-      <c r="W27" s="17">
+      <c r="W27" s="14">
         <v>1559600010220</v>
       </c>
-      <c r="X27" s="17">
+      <c r="X27" s="14">
         <v>1559600010220</v>
       </c>
       <c r="AI27" s="3" t="s">
@@ -5032,10 +5043,10 @@
       <c r="T28" s="10">
         <v>2544</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="12">
         <v>1710501455029</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="12">
         <v>1710501455029</v>
       </c>
       <c r="AI28" s="1" t="s">
@@ -5070,10 +5081,10 @@
       <c r="T29" s="10">
         <v>2537</v>
       </c>
-      <c r="W29" s="17">
+      <c r="W29" s="14">
         <v>1209300011983</v>
       </c>
-      <c r="X29" s="17">
+      <c r="X29" s="14">
         <v>1209300011983</v>
       </c>
       <c r="AI29" s="3" t="s">
@@ -5108,10 +5119,10 @@
       <c r="T30" s="10">
         <v>2513</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="12">
         <v>5101799023877</v>
       </c>
-      <c r="X30" s="15">
+      <c r="X30" s="12">
         <v>5101799023877</v>
       </c>
       <c r="AI30" s="1" t="s">
@@ -5146,10 +5157,10 @@
       <c r="T31" s="10">
         <v>2544</v>
       </c>
-      <c r="W31" s="17">
+      <c r="W31" s="14">
         <v>1149900652018</v>
       </c>
-      <c r="X31" s="17">
+      <c r="X31" s="14">
         <v>1149900652018</v>
       </c>
       <c r="AI31" s="3" t="s">
@@ -5182,10 +5193,10 @@
       <c r="T32" s="10">
         <v>2534</v>
       </c>
-      <c r="W32" s="15">
+      <c r="W32" s="12">
         <v>1929800068465</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="12">
         <v>1929800068465</v>
       </c>
       <c r="AI32" s="1" t="s">
@@ -5201,11 +5212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC49E48-A4D9-5049-B966-D5E861AF434E}">
   <dimension ref="A1:AL204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O205" sqref="O205"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="V92" sqref="V92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -5228,7 +5239,7 @@
     <col min="20" max="20" width="11.5" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.1640625" bestFit="1" customWidth="1"/>
@@ -5368,8 +5379,8 @@
       <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
+      <c r="H2" s="19" t="s">
+        <v>1128</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>193</v>
@@ -5404,7 +5415,7 @@
       <c r="G3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -6520,25 +6531,25 @@
       </c>
     </row>
     <row r="33" spans="6:35" x14ac:dyDescent="0.2">
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="15" t="s">
         <v>226</v>
       </c>
       <c r="G33" t="s">
         <v>227</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="P33" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="15">
         <v>26</v>
       </c>
       <c r="S33" s="10">
@@ -6547,13 +6558,13 @@
       <c r="T33" s="10">
         <v>2543</v>
       </c>
-      <c r="W33" s="21">
+      <c r="W33" s="17">
         <v>1509900953995</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33" s="17">
         <v>1509900953995</v>
       </c>
-      <c r="AI33" s="19" t="s">
+      <c r="AI33" s="15" t="s">
         <v>875</v>
       </c>
     </row>
@@ -6780,25 +6791,25 @@
       </c>
     </row>
     <row r="40" spans="6:35" x14ac:dyDescent="0.2">
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="15" t="s">
         <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>241</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="P40" s="19" t="s">
+      <c r="P40" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R40" s="15">
         <v>12</v>
       </c>
       <c r="S40" s="10">
@@ -6807,13 +6818,13 @@
       <c r="T40" s="10">
         <v>2538</v>
       </c>
-      <c r="W40" s="21">
+      <c r="W40" s="17">
         <v>5940400046612</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X40" s="17">
         <v>5940400046612</v>
       </c>
-      <c r="AI40" s="19" t="s">
+      <c r="AI40" s="15" t="s">
         <v>881</v>
       </c>
     </row>
@@ -7674,25 +7685,25 @@
       </c>
     </row>
     <row r="64" spans="6:35" x14ac:dyDescent="0.2">
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="15" t="s">
         <v>288</v>
       </c>
       <c r="G64" t="s">
         <v>289</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="L64" s="19" t="s">
+      <c r="L64" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="N64" s="19" t="s">
+      <c r="N64" s="15" t="s">
         <v>1070</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="P64" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="R64" s="19">
+      <c r="R64" s="15">
         <v>6</v>
       </c>
       <c r="S64" s="10">
@@ -7701,13 +7712,13 @@
       <c r="T64" s="10">
         <v>2536</v>
       </c>
-      <c r="W64" s="21">
+      <c r="W64" s="17">
         <v>1100201028686</v>
       </c>
-      <c r="X64" s="21">
+      <c r="X64" s="17">
         <v>1100201028686</v>
       </c>
-      <c r="AI64" s="19" t="s">
+      <c r="AI64" s="15" t="s">
         <v>905</v>
       </c>
     </row>
@@ -8270,25 +8281,25 @@
       </c>
     </row>
     <row r="80" spans="6:35" x14ac:dyDescent="0.2">
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="15" t="s">
         <v>320</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L80" s="19" t="s">
+      <c r="L80" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="N80" s="19" t="s">
+      <c r="N80" s="15" t="s">
         <v>1080</v>
       </c>
-      <c r="P80" s="19" t="s">
+      <c r="P80" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="R80" s="19">
+      <c r="R80" s="15">
         <v>22</v>
       </c>
       <c r="S80" s="10">
@@ -8297,13 +8308,13 @@
       <c r="T80" s="10">
         <v>1998</v>
       </c>
-      <c r="W80" s="21">
+      <c r="W80" s="17">
         <v>7</v>
       </c>
-      <c r="X80" s="21">
+      <c r="X80" s="17">
         <v>7</v>
       </c>
-      <c r="AI80" s="19" t="s">
+      <c r="AI80" s="15" t="s">
         <v>920</v>
       </c>
     </row>
@@ -8415,25 +8426,25 @@
       </c>
     </row>
     <row r="84" spans="6:35" x14ac:dyDescent="0.2">
-      <c r="F84" s="19" t="s">
+      <c r="F84" s="15" t="s">
         <v>326</v>
       </c>
       <c r="G84" t="s">
         <v>327</v>
       </c>
-      <c r="H84" s="19" t="s">
+      <c r="H84" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="L84" s="19" t="s">
+      <c r="L84" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="N84" s="19" t="s">
+      <c r="N84" s="15" t="s">
         <v>1083</v>
       </c>
-      <c r="P84" s="19" t="s">
+      <c r="P84" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="R84" s="19">
+      <c r="R84" s="15">
         <v>5</v>
       </c>
       <c r="S84" s="10">
@@ -8442,13 +8453,13 @@
       <c r="T84" s="10">
         <v>2532</v>
       </c>
-      <c r="W84" s="21">
+      <c r="W84" s="17">
         <v>1529900361664</v>
       </c>
-      <c r="X84" s="21">
+      <c r="X84" s="17">
         <v>1529900361664</v>
       </c>
-      <c r="AI84" s="19" t="s">
+      <c r="AI84" s="15" t="s">
         <v>924</v>
       </c>
     </row>
@@ -8734,7 +8745,7 @@
         <v>6</v>
       </c>
       <c r="T92" s="10">
-        <v>25547</v>
+        <v>2547</v>
       </c>
       <c r="W92" s="12"/>
       <c r="X92" s="12"/>
@@ -10518,7 +10529,7 @@
       <c r="P141" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="R141" s="20">
+      <c r="R141" s="16">
         <v>9</v>
       </c>
       <c r="S141" s="10">
@@ -12812,6 +12823,10 @@
   <conditionalFormatting sqref="AI115">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{AC3B66BA-6EFC-154C-853E-873720874C4A}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{69D786F5-DBA6-1343-B0A6-E0FEEA49794B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>